--- a/src/mappings/ics/xlsx/veris-1_3_7-mappings-ics_v12.xlsx
+++ b/src/mappings/ics/xlsx/veris-1_3_7-mappings-ics_v12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitreengenuity.sharepoint.com/sites/CTIDInternal/Shared Documents/Research &amp; Development/1 - Customer Projects/22-52 - VERIS II/Center Team Resources/Mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="8_{674DFAEF-22FA-468A-93DF-3B1F8EBB0BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3184151C-FD13-4DC4-A97D-D7296C57B7EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEF743F-5A67-4095-9381-1DC2EF84ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="4" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="345">
   <si>
     <t>ATT&amp;CK Integration into VERIS</t>
   </si>
@@ -160,30 +160,6 @@
     <t>Scripting</t>
   </si>
   <si>
-    <t>T1516</t>
-  </si>
-  <si>
-    <t>Input Injection</t>
-  </si>
-  <si>
-    <t>T1430</t>
-  </si>
-  <si>
-    <t>Location Tracking</t>
-  </si>
-  <si>
-    <t>T1430.001</t>
-  </si>
-  <si>
-    <t>Location Tracking: Remote Device Management Services</t>
-  </si>
-  <si>
-    <t>T1430.002</t>
-  </si>
-  <si>
-    <t>Location Tracking: Impersonate SS7 Nodes</t>
-  </si>
-  <si>
     <t>Backdoor</t>
   </si>
   <si>
@@ -199,6 +175,24 @@
     <t>Internet Accessible Device</t>
   </si>
   <si>
+    <t>T0848</t>
+  </si>
+  <si>
+    <t>Rogue Master</t>
+  </si>
+  <si>
+    <t>T0835</t>
+  </si>
+  <si>
+    <t>Manipulate I/O Image</t>
+  </si>
+  <si>
+    <t>T0831</t>
+  </si>
+  <si>
+    <t>Manipulation of Control</t>
+  </si>
+  <si>
     <t>Brute force</t>
   </si>
   <si>
@@ -220,7 +214,7 @@
     <t>CSRF</t>
   </si>
   <si>
-    <t>Disable Controls</t>
+    <t>Disable controls</t>
   </si>
   <si>
     <t>T0858</t>
@@ -412,27 +406,6 @@
     <t>URL redirector abuse</t>
   </si>
   <si>
-    <t>Use of backdoor or C2</t>
-  </si>
-  <si>
-    <t>T0848</t>
-  </si>
-  <si>
-    <t>Rogue Master</t>
-  </si>
-  <si>
-    <t>T0835</t>
-  </si>
-  <si>
-    <t>Manipulate I/O Image</t>
-  </si>
-  <si>
-    <t>T0831</t>
-  </si>
-  <si>
-    <t>Manipulation of Control</t>
-  </si>
-  <si>
     <t>Use of stolen creds</t>
   </si>
   <si>
@@ -523,12 +496,6 @@
     <t>Physical access</t>
   </si>
   <si>
-    <t>T1461</t>
-  </si>
-  <si>
-    <t>Lockscreen Bypass</t>
-  </si>
-  <si>
     <t>VPN</t>
   </si>
   <si>
@@ -562,6 +529,33 @@
     <t>Data from Information Repositories</t>
   </si>
   <si>
+    <t>Modify data</t>
+  </si>
+  <si>
+    <t>T0821</t>
+  </si>
+  <si>
+    <t>Modify Controller Tasking</t>
+  </si>
+  <si>
+    <t>T0873</t>
+  </si>
+  <si>
+    <t>Project File Infection</t>
+  </si>
+  <si>
+    <t>T0889</t>
+  </si>
+  <si>
+    <t>Modify Program</t>
+  </si>
+  <si>
+    <t>T0836</t>
+  </si>
+  <si>
+    <t>Modify Parameter</t>
+  </si>
+  <si>
     <t>VERIS Integrity Variety</t>
   </si>
   <si>
@@ -607,33 +601,6 @@
     <t>Modify configuration</t>
   </si>
   <si>
-    <t>T0836</t>
-  </si>
-  <si>
-    <t>Modify Parameter</t>
-  </si>
-  <si>
-    <t>T0821</t>
-  </si>
-  <si>
-    <t>Modify Controller Tasking</t>
-  </si>
-  <si>
-    <t>T0889</t>
-  </si>
-  <si>
-    <t>Modify Program</t>
-  </si>
-  <si>
-    <t>T0873</t>
-  </si>
-  <si>
-    <t>Project File Infection</t>
-  </si>
-  <si>
-    <t>Modify data</t>
-  </si>
-  <si>
     <t>Modify privileges</t>
   </si>
   <si>
@@ -754,12 +721,6 @@
     <t>Screen Capture</t>
   </si>
   <si>
-    <t>T1417.002</t>
-  </si>
-  <si>
-    <t>GUI Input Capture</t>
-  </si>
-  <si>
     <t>Capture stored data</t>
   </si>
   <si>
@@ -778,9 +739,6 @@
     <t>Destroy data</t>
   </si>
   <si>
-    <t>Disable controls</t>
-  </si>
-  <si>
     <t>Downloader</t>
   </si>
   <si>
@@ -830,12 +788,6 @@
   </si>
   <si>
     <t>Spyware/Keylogger</t>
-  </si>
-  <si>
-    <t>T1417.001</t>
-  </si>
-  <si>
-    <t>Input Capture: Keylogging</t>
   </si>
   <si>
     <t>Trojan</t>
@@ -1270,7 +1222,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,39 +1287,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1689,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62726C7-AE57-47B4-AC07-9EA1C9A6C528}">
   <dimension ref="D5:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
@@ -1757,188 +1693,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16383" width="10.625" style="30"/>
-    <col min="16384" max="16384" width="10.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.125" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.95">
-      <c r="A1" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95">
-      <c r="A2" s="30" t="s">
-        <v>303</v>
+      <c r="A2" t="s">
+        <v>287</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95">
-      <c r="A3" s="30" t="s">
-        <v>272</v>
+      <c r="A3" t="s">
+        <v>256</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.95">
       <c r="B4" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.95">
-      <c r="A5" s="30" t="s">
-        <v>304</v>
+      <c r="A5" t="s">
+        <v>288</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="34"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="17.100000000000001">
-      <c r="A6" s="30" t="s">
-        <v>305</v>
+      <c r="A6" t="s">
+        <v>289</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.95">
-      <c r="A7" s="30" t="s">
-        <v>306</v>
+      <c r="A7" t="s">
+        <v>290</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="15.95">
-      <c r="A8" s="30" t="s">
-        <v>283</v>
+      <c r="A8" t="s">
+        <v>267</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>266</v>
+        <v>249</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.95">
-      <c r="A9" s="30" t="s">
-        <v>307</v>
+      <c r="A9" t="s">
+        <v>291</v>
       </c>
       <c r="B9" s="28"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.95">
-      <c r="A10" s="30" t="s">
-        <v>308</v>
+      <c r="A10" t="s">
+        <v>292</v>
       </c>
       <c r="B10" s="28"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15.95">
-      <c r="A11" s="30" t="s">
-        <v>309</v>
+      <c r="A11" t="s">
+        <v>293</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.95">
       <c r="B12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.95">
-      <c r="A13" s="30" t="s">
-        <v>161</v>
+      <c r="A13" t="s">
+        <v>150</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.95">
       <c r="B14" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.95">
-      <c r="A15" s="30" t="s">
-        <v>144</v>
+      <c r="A15" t="s">
+        <v>135</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.95">
       <c r="B16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.95">
       <c r="B17" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.95">
       <c r="B18" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
       <c r="B19" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>145</v>
+      <c r="A20" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1972,407 +1907,406 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="39.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
-        <v>311</v>
+      <c r="A2" t="s">
+        <v>295</v>
       </c>
       <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
-        <v>312</v>
+      <c r="A3" t="s">
+        <v>296</v>
       </c>
       <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
-        <v>313</v>
+      <c r="A4" t="s">
+        <v>297</v>
       </c>
       <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
-        <v>314</v>
+      <c r="A5" t="s">
+        <v>298</v>
       </c>
       <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
-        <v>315</v>
+      <c r="A6" t="s">
+        <v>299</v>
       </c>
       <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
-        <v>316</v>
+      <c r="A7" t="s">
+        <v>300</v>
       </c>
       <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30" t="s">
-        <v>317</v>
+      <c r="A8" t="s">
+        <v>301</v>
       </c>
       <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30" t="s">
-        <v>318</v>
+      <c r="A9" t="s">
+        <v>302</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30" t="s">
-        <v>319</v>
+      <c r="A10" t="s">
+        <v>303</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="30" t="s">
-        <v>320</v>
+      <c r="A11" t="s">
+        <v>304</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
-        <v>321</v>
+      <c r="A12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30" t="s">
-        <v>322</v>
+      <c r="A13" t="s">
+        <v>306</v>
       </c>
       <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30" t="s">
-        <v>323</v>
+      <c r="A14" t="s">
+        <v>307</v>
       </c>
       <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30" t="s">
-        <v>324</v>
+      <c r="A15" t="s">
+        <v>308</v>
       </c>
       <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="30" t="s">
-        <v>325</v>
+      <c r="A16" t="s">
+        <v>309</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="30" t="s">
-        <v>326</v>
+      <c r="A17" t="s">
+        <v>310</v>
       </c>
       <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="30" t="s">
-        <v>327</v>
+      <c r="A18" t="s">
+        <v>311</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="30" t="s">
-        <v>328</v>
+      <c r="A19" t="s">
+        <v>312</v>
       </c>
       <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="30" t="s">
-        <v>329</v>
+      <c r="A20" t="s">
+        <v>313</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="30" t="s">
-        <v>330</v>
+      <c r="A21" t="s">
+        <v>314</v>
       </c>
       <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="30" t="s">
-        <v>331</v>
+      <c r="A22" t="s">
+        <v>315</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="30" t="s">
-        <v>332</v>
+      <c r="A23" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="30" t="s">
-        <v>333</v>
+      <c r="A24" t="s">
+        <v>317</v>
       </c>
       <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="30" t="s">
-        <v>334</v>
+      <c r="A25" t="s">
+        <v>318</v>
       </c>
       <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="30" t="s">
-        <v>335</v>
+      <c r="A26" t="s">
+        <v>319</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="30" t="s">
-        <v>336</v>
+      <c r="A27" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="30" t="s">
-        <v>337</v>
+      <c r="A28" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="30" t="s">
-        <v>338</v>
+      <c r="A29" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="30" t="s">
-        <v>339</v>
+      <c r="A30" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="30" t="s">
-        <v>340</v>
+      <c r="A31" t="s">
+        <v>324</v>
       </c>
       <c r="B31" s="28"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="30" t="s">
-        <v>341</v>
+      <c r="A32" t="s">
+        <v>325</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="30" t="s">
-        <v>342</v>
+      <c r="A33" t="s">
+        <v>326</v>
       </c>
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="30" t="s">
-        <v>343</v>
+      <c r="A34" t="s">
+        <v>327</v>
       </c>
       <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="30" t="s">
-        <v>344</v>
+      <c r="A35" t="s">
+        <v>328</v>
       </c>
       <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="30" t="s">
-        <v>345</v>
+      <c r="A36" t="s">
+        <v>329</v>
       </c>
       <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="30" t="s">
-        <v>346</v>
+      <c r="A37" t="s">
+        <v>330</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
-      <c r="A38" s="30" t="s">
-        <v>347</v>
+      <c r="A38" t="s">
+        <v>331</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="30" t="s">
-        <v>348</v>
+      <c r="A39" t="s">
+        <v>332</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="B40" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>134</v>
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75">
-      <c r="A41" s="30" t="s">
-        <v>349</v>
+      <c r="A41" t="s">
+        <v>333</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="B42" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="30" t="s">
-        <v>350</v>
+      <c r="A43" t="s">
+        <v>334</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
       <c r="B44" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="30" t="s">
-        <v>351</v>
+      <c r="A45" t="s">
+        <v>335</v>
       </c>
       <c r="B45" s="28"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" ht="15.75">
-      <c r="A46" s="30" t="s">
-        <v>352</v>
+      <c r="A46" t="s">
+        <v>336</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>168</v>
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="B47" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>251</v>
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
-      <c r="A48" s="30" t="s">
-        <v>353</v>
+      <c r="A48" t="s">
+        <v>337</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="B49" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
-      <c r="A50" s="30" t="s">
-        <v>354</v>
+      <c r="A50" t="s">
+        <v>338</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="B51" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="B52" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2380,43 +2314,43 @@
       <c r="B53" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="30" t="s">
-        <v>355</v>
+      <c r="A54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="30" t="s">
-        <v>356</v>
+      <c r="A55" t="s">
+        <v>340</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="B56" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="30" t="s">
-        <v>357</v>
+      <c r="A57" t="s">
+        <v>341</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>257</v>
+        <v>242</v>
+      </c>
+      <c r="C57" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2461,15 +2395,15 @@
     <col min="4" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>360</v>
+    <row r="1" spans="1:3" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
@@ -5990,10 +5924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7AF39-A8AE-1448-8EA3-B969364DCC63}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
@@ -6127,58 +6061,42 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
@@ -6191,522 +6109,520 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="28" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="28"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="2"/>
-      <c r="B29" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="2"/>
-      <c r="B30" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B32" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="28" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="28" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" s="28" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="28" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="2"/>
       <c r="B38" s="28" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75">
+      <c r="A40" s="2"/>
+      <c r="B40" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75">
+      <c r="A41" s="2"/>
+      <c r="B41" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
-      <c r="A44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75">
-      <c r="A45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75">
-      <c r="A46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="28"/>
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
-      <c r="A47" s="4" t="s">
-        <v>91</v>
+      <c r="A47" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B47" s="28"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B48" s="28"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B49" s="28"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B51" s="28"/>
-      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B52" s="28"/>
-      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B53" s="28"/>
-      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
+      <c r="A54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="28"/>
     </row>
     <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="2"/>
-      <c r="B55" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
+      <c r="A55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="2" t="s">
-        <v>104</v>
+      <c r="A57" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B57" s="28"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
-      <c r="A58" s="2" t="s">
-        <v>105</v>
+      <c r="A58" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B58" s="28"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="2" t="s">
-        <v>108</v>
+      <c r="A61" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="4" t="s">
-        <v>109</v>
+      <c r="A62" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B62" s="28"/>
-      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B63" s="28"/>
       <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
-      <c r="A64" s="4" t="s">
-        <v>111</v>
+      <c r="A64" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B64" s="28"/>
     </row>
     <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="4" t="s">
-        <v>112</v>
+      <c r="A65" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B65" s="28"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" s="4"/>
+      <c r="A66" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="B66" s="28"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" ht="15.75">
-      <c r="A67" s="2" t="s">
-        <v>113</v>
+      <c r="A67" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" ht="15.75">
-      <c r="A68" s="4" t="s">
-        <v>114</v>
+      <c r="A68" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B68" s="28"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B69" s="28"/>
-      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B70" s="28"/>
-      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
-      <c r="A71" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A71" s="4"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" t="s">
-        <v>32</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
-      <c r="A76" s="4"/>
-      <c r="B76" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
-      </c>
+      <c r="A76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
-      <c r="A77" s="4"/>
-      <c r="B77" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" t="s">
-        <v>123</v>
-      </c>
+      <c r="A77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
-      <c r="A78" s="4"/>
-      <c r="B78" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" t="s">
-        <v>125</v>
-      </c>
+      <c r="A78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3" ht="15.75">
-      <c r="A79" s="4"/>
-      <c r="B79" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" t="s">
-        <v>127</v>
-      </c>
+      <c r="A79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="2"/>
       <c r="B81" s="28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="2"/>
       <c r="B82" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" s="4" customFormat="1" ht="15.75">
       <c r="A84" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B84" s="28"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B85" s="28"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="4"/>
@@ -6718,49 +6634,49 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B88" s="28"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B90" s="28"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B91" s="28"/>
       <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B92" s="28"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B93" s="28"/>
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B94" s="28"/>
       <c r="C94" s="19"/>
@@ -6926,48 +6842,53 @@
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:3" ht="15.75"/>
+    <row r="136" spans="2:3" ht="15.75"/>
+    <row r="137" spans="2:3" ht="15.75"/>
+    <row r="138" spans="2:3" ht="15.75"/>
+    <row r="139" spans="2:3" ht="15.75"/>
+    <row r="140" spans="2:3" ht="15.75"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1" display="https://attack.mitre.org/techniques/T0830" xr:uid="{37D2B145-B577-1243-AA08-0B1D6DD001D8}"/>
-    <hyperlink ref="B32" r:id="rId2" display="https://attack.mitre.org/techniques/T0878" xr:uid="{7EA1B6F6-31ED-6345-A368-1D58C53AE581}"/>
-    <hyperlink ref="B33" r:id="rId3" display="https://attack.mitre.org/techniques/T0804" xr:uid="{0A8ABBE2-B132-EA42-B8D9-50001C94D1AE}"/>
-    <hyperlink ref="B34" r:id="rId4" display="https://attack.mitre.org/techniques/T0805" xr:uid="{72D53DBB-4F09-7D44-A008-EC30442CD5F4}"/>
-    <hyperlink ref="B21" r:id="rId5" display="https://attack.mitre.org/techniques/T0806" xr:uid="{36870E14-81B0-2246-81E9-44C595ED00ED}"/>
-    <hyperlink ref="B26" r:id="rId6" display="https://attack.mitre.org/techniques/T0858" xr:uid="{08EE23D7-212F-584F-847C-3CD7FD6B0CF7}"/>
+    <hyperlink ref="B59" r:id="rId1" display="https://attack.mitre.org/techniques/T0830" xr:uid="{37D2B145-B577-1243-AA08-0B1D6DD001D8}"/>
+    <hyperlink ref="B37" r:id="rId2" display="https://attack.mitre.org/techniques/T0878" xr:uid="{7EA1B6F6-31ED-6345-A368-1D58C53AE581}"/>
+    <hyperlink ref="B38" r:id="rId3" display="https://attack.mitre.org/techniques/T0804" xr:uid="{0A8ABBE2-B132-EA42-B8D9-50001C94D1AE}"/>
+    <hyperlink ref="B39" r:id="rId4" display="https://attack.mitre.org/techniques/T0805" xr:uid="{72D53DBB-4F09-7D44-A008-EC30442CD5F4}"/>
+    <hyperlink ref="B26" r:id="rId5" display="https://attack.mitre.org/techniques/T0806" xr:uid="{36870E14-81B0-2246-81E9-44C595ED00ED}"/>
+    <hyperlink ref="B31" r:id="rId6" display="https://attack.mitre.org/techniques/T0858" xr:uid="{08EE23D7-212F-584F-847C-3CD7FD6B0CF7}"/>
     <hyperlink ref="B3" r:id="rId7" display="https://attack.mitre.org/techniques/T0885" xr:uid="{4E289377-C2CF-0B4C-A612-E3D4874BF1D9}"/>
     <hyperlink ref="B80" r:id="rId8" display="https://attack.mitre.org/techniques/T0812" xr:uid="{5CFE1540-0999-2842-9A2E-DCE940736B6A}"/>
-    <hyperlink ref="B27" r:id="rId9" display="https://attack.mitre.org/techniques/T0813" xr:uid="{A64F2BB5-0318-184B-B49C-6DE601ADC1C2}"/>
-    <hyperlink ref="B28" r:id="rId10" display="https://attack.mitre.org/techniques/T0814" xr:uid="{FCF9D39D-6677-A14C-A231-04EB570072EF}"/>
-    <hyperlink ref="B29" r:id="rId11" display="https://attack.mitre.org/techniques/T0815" xr:uid="{E5DA2361-B52D-F14F-9064-8DC430193147}"/>
+    <hyperlink ref="B32" r:id="rId9" display="https://attack.mitre.org/techniques/T0813" xr:uid="{A64F2BB5-0318-184B-B49C-6DE601ADC1C2}"/>
+    <hyperlink ref="B33" r:id="rId10" display="https://attack.mitre.org/techniques/T0814" xr:uid="{FCF9D39D-6677-A14C-A231-04EB570072EF}"/>
+    <hyperlink ref="B34" r:id="rId11" display="https://attack.mitre.org/techniques/T0815" xr:uid="{E5DA2361-B52D-F14F-9064-8DC430193147}"/>
     <hyperlink ref="B4" r:id="rId12" display="https://attack.mitre.org/techniques/T0816" xr:uid="{6071EFD8-54EE-C342-A5CD-019520AA3503}"/>
-    <hyperlink ref="B30" r:id="rId13" display="https://attack.mitre.org/techniques/T0816" xr:uid="{1D56D7D6-2FB5-5E49-A7E8-BD57889078F3}"/>
+    <hyperlink ref="B35" r:id="rId13" display="https://attack.mitre.org/techniques/T0816" xr:uid="{1D56D7D6-2FB5-5E49-A7E8-BD57889078F3}"/>
     <hyperlink ref="B5" r:id="rId14" display="https://attack.mitre.org/techniques/T0817" xr:uid="{E325D523-4136-A94B-A1E1-AD3229FF15A3}"/>
     <hyperlink ref="B6" r:id="rId15" display="https://attack.mitre.org/techniques/T0871" xr:uid="{AD210D61-694D-1446-9134-5E42F71FCF50}"/>
-    <hyperlink ref="B37" r:id="rId16" display="https://attack.mitre.org/techniques/T0819" xr:uid="{3CCDE3E5-95E0-F441-8FE5-91E3BF111D5D}"/>
-    <hyperlink ref="B39" r:id="rId17" display="https://attack.mitre.org/techniques/T0820" xr:uid="{C6147834-0BAB-954C-86E9-B2EF408ADB7C}"/>
-    <hyperlink ref="B35" r:id="rId18" display="https://attack.mitre.org/techniques/T0820" xr:uid="{3C00797C-957C-C540-95B4-16C94BC1EA88}"/>
-    <hyperlink ref="B40" r:id="rId19" display="https://attack.mitre.org/techniques/T0890" xr:uid="{782F0C5D-C37C-9047-B099-ADF6AEED6CBF}"/>
-    <hyperlink ref="B41" r:id="rId20" display="https://attack.mitre.org/techniques/T0866" xr:uid="{2E0D6CAA-D3AD-6142-A346-8A679AC862CA}"/>
+    <hyperlink ref="B42" r:id="rId16" display="https://attack.mitre.org/techniques/T0819" xr:uid="{3CCDE3E5-95E0-F441-8FE5-91E3BF111D5D}"/>
+    <hyperlink ref="B44" r:id="rId17" display="https://attack.mitre.org/techniques/T0820" xr:uid="{C6147834-0BAB-954C-86E9-B2EF408ADB7C}"/>
+    <hyperlink ref="B40" r:id="rId18" display="https://attack.mitre.org/techniques/T0820" xr:uid="{3C00797C-957C-C540-95B4-16C94BC1EA88}"/>
+    <hyperlink ref="B45" r:id="rId19" display="https://attack.mitre.org/techniques/T0890" xr:uid="{782F0C5D-C37C-9047-B099-ADF6AEED6CBF}"/>
+    <hyperlink ref="B46" r:id="rId20" display="https://attack.mitre.org/techniques/T0866" xr:uid="{2E0D6CAA-D3AD-6142-A346-8A679AC862CA}"/>
     <hyperlink ref="B18" r:id="rId21" display="https://attack.mitre.org/techniques/T0822" xr:uid="{1E736E82-4A3D-9B46-80B6-E39040A18C33}"/>
     <hyperlink ref="B7" r:id="rId22" display="https://attack.mitre.org/techniques/T0823" xr:uid="{0F97B064-0DEB-6D45-96A1-6D45ADE2E244}"/>
     <hyperlink ref="B81" r:id="rId23" display="https://attack.mitre.org/techniques/T0891" xr:uid="{15B07C3C-449D-CD40-8CB7-2FCBAE1D70B8}"/>
     <hyperlink ref="B8" r:id="rId24" display="https://attack.mitre.org/techniques/T0874" xr:uid="{2FF241C0-DA7E-3249-991C-CCB211541930}"/>
-    <hyperlink ref="B36" r:id="rId25" display="https://attack.mitre.org/techniques/T0872" xr:uid="{5C0FE081-929D-2249-B013-D8DC82C65520}"/>
-    <hyperlink ref="B38" r:id="rId26" display="https://attack.mitre.org/techniques/T0883" xr:uid="{25294212-FE61-5945-A974-D2E2672323E6}"/>
+    <hyperlink ref="B41" r:id="rId25" display="https://attack.mitre.org/techniques/T0872" xr:uid="{5C0FE081-929D-2249-B013-D8DC82C65520}"/>
+    <hyperlink ref="B43" r:id="rId26" display="https://attack.mitre.org/techniques/T0883" xr:uid="{25294212-FE61-5945-A974-D2E2672323E6}"/>
     <hyperlink ref="B19" r:id="rId27" display="https://attack.mitre.org/techniques/T0883" xr:uid="{E39A98AB-4557-A844-8E98-9F26F6B9ECFE}"/>
     <hyperlink ref="B9" r:id="rId28" display="https://attack.mitre.org/techniques/T0867" xr:uid="{4792917E-93DA-0A49-9BF9-7A62B4C7350E}"/>
-    <hyperlink ref="B55" r:id="rId29" display="https://attack.mitre.org/techniques/T0860" xr:uid="{5CC62EB5-07EE-9A4F-BEA2-D0C6DF5883E7}"/>
+    <hyperlink ref="B60" r:id="rId29" display="https://attack.mitre.org/techniques/T0860" xr:uid="{5CC62EB5-07EE-9A4F-BEA2-D0C6DF5883E7}"/>
     <hyperlink ref="B82" r:id="rId30" display="https://attack.mitre.org/techniques/T0859" xr:uid="{869FA67C-DEF0-364B-912A-939A04B41F51}"/>
     <hyperlink ref="B10" r:id="rId31" display="https://attack.mitre.org/techniques/T0855" xr:uid="{AF455E96-4E66-9645-ADB8-6B37FCBB3EF0}"/>
     <hyperlink ref="B20" r:id="rId32" display="https://attack.mitre.org/techniques/T0855" xr:uid="{EE618BAF-D44D-9B41-87B6-461207F6DA33}"/>
     <hyperlink ref="B11" r:id="rId33" display="https://attack.mitre.org/techniques/T0869" xr:uid="{CDB0DA02-CFA0-FB41-9734-854B5E82C2B2}"/>
-    <hyperlink ref="B75" r:id="rId34" display="https://attack.mitre.org/techniques/T0869" xr:uid="{90AED555-14DA-3E41-BA54-6E13ACECA4A7}"/>
-    <hyperlink ref="B12" r:id="rId35" display="https://attack.mitre.org/techniques/T0881" xr:uid="{BFE2B995-5A33-DA43-9B2A-B7FB5CAF6694}"/>
-    <hyperlink ref="B13" r:id="rId36" display="https://attack.mitre.org/techniques/T0853" xr:uid="{5185CDDF-3824-F844-87C1-E41C81442E56}"/>
-    <hyperlink ref="B76" r:id="rId37" display="https://attack.mitre.org/techniques/T0853" xr:uid="{365EB79E-5A5C-3E4E-B8AD-FF4D254E6C4B}"/>
-    <hyperlink ref="B77" r:id="rId38" display="https://attack.mitre.org/techniques/T0848" xr:uid="{5E98A6BE-8A80-4C46-A793-EDC33EC93BC5}"/>
-    <hyperlink ref="B78" r:id="rId39" display="https://attack.mitre.org/techniques/T0835" xr:uid="{4A0119BA-0AE2-DF4E-91AC-E68E1379A4B4}"/>
-    <hyperlink ref="B79" r:id="rId40" display="https://attack.mitre.org/techniques/T0831" xr:uid="{E706DC2E-411D-094E-A189-1750DF3A9C99}"/>
+    <hyperlink ref="B12" r:id="rId34" display="https://attack.mitre.org/techniques/T0881" xr:uid="{BFE2B995-5A33-DA43-9B2A-B7FB5CAF6694}"/>
+    <hyperlink ref="B13" r:id="rId35" display="https://attack.mitre.org/techniques/T0853" xr:uid="{5185CDDF-3824-F844-87C1-E41C81442E56}"/>
+    <hyperlink ref="B22" r:id="rId36" display="https://attack.mitre.org/techniques/T0853" xr:uid="{365EB79E-5A5C-3E4E-B8AD-FF4D254E6C4B}"/>
+    <hyperlink ref="B23" r:id="rId37" display="https://attack.mitre.org/techniques/T0848" xr:uid="{5E98A6BE-8A80-4C46-A793-EDC33EC93BC5}"/>
+    <hyperlink ref="B24" r:id="rId38" display="https://attack.mitre.org/techniques/T0835" xr:uid="{4A0119BA-0AE2-DF4E-91AC-E68E1379A4B4}"/>
+    <hyperlink ref="B25" r:id="rId39" display="https://attack.mitre.org/techniques/T0831" xr:uid="{E706DC2E-411D-094E-A189-1750DF3A9C99}"/>
+    <hyperlink ref="B21" r:id="rId40" display="https://attack.mitre.org/techniques/T0869" xr:uid="{90AED555-14DA-3E41-BA54-6E13ACECA4A7}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId41"/>
@@ -6979,7 +6900,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
@@ -6991,7 +6912,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -7002,29 +6923,29 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -7039,10 +6960,10 @@
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="2"/>
       <c r="B6" s="28" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -7051,13 +6972,13 @@
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -7080,82 +7001,78 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="16.5">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B20" s="28"/>
     </row>
@@ -7179,10 +7096,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDB77F8-08D1-470F-BA2C-78FD3244C97D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
@@ -7194,7 +7111,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>10</v>
@@ -7205,48 +7122,91 @@
     </row>
     <row r="2" spans="1:3" ht="17.100000000000001">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.100000000000001">
       <c r="B5" s="11" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.100000000000001">
       <c r="B6" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="B8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="B9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="B11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE1002AF-9085-461D-9027-25BC22637C47}"/>
@@ -7254,9 +7214,14 @@
     <hyperlink ref="B4" r:id="rId3" display="https://attack.mitre.org/techniques/T0859" xr:uid="{402347B8-ACB8-400E-A471-DF1E9F5E2888}"/>
     <hyperlink ref="B5" r:id="rId4" display="https://attack.mitre.org/techniques/T0882" xr:uid="{8B33FEBA-4C72-4B92-B046-CE68725D749E}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{7DF776B2-230A-42DD-9E69-2A6582CD126F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{4F0EB2DE-82BD-4BE3-B69D-0CD283D7A24A}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2753AC4A-448D-4ED1-B43A-42380FD44D0C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{34E53570-F479-48D6-9C1F-F69988C5AC68}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{1710B428-C825-4560-9640-0ED86A244E3F}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{BA781074-89A4-4B27-B177-BE0D3AB0F999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -7264,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0720A71-FEE1-42C9-B26A-BF04E4E8C788}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
@@ -7277,7 +7242,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>10</v>
@@ -7288,37 +7253,37 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="B5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -7331,28 +7296,28 @@
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>13</v>
@@ -7363,113 +7328,113 @@
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="B11" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
         <v>182</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="B15" s="11" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="B16" s="11" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="B17" s="11" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="B19" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="B20" s="11" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="15.75">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>27</v>
@@ -7480,14 +7445,14 @@
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="19"/>
@@ -7525,8 +7490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C914616-D369-4005-B867-853911BC6BFE}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A80" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
@@ -7538,7 +7503,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>10</v>
@@ -7549,134 +7514,134 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>125</v>
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="B4" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>127</v>
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="B7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="B8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="B9" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="B10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="B12" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="B13" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="B14" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="B16" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>209</v>
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="B17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7684,65 +7649,65 @@
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="B19" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="B20" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="B21" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="B22" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
       <c r="B23" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>219</v>
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B25" s="25"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B26" s="25"/>
     </row>
@@ -7933,7 +7898,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="4"/>
@@ -7952,7 +7917,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="19"/>
@@ -7999,27 +7964,21 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>144</v>
-      </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>145</v>
-      </c>
       <c r="B94" s="25"/>
     </row>
     <row r="95" spans="1:3" ht="15.75"/>
@@ -8054,695 +8013,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFA46F8-B8B6-4B4E-AEB2-FE94B78BB5E8}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="83.625" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="83.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="33" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="2"/>
+      <c r="B10" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="34" t="s">
+      <c r="C10" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="28" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="B12" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="34" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="34" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="34" t="s">
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="34"/>
-      <c r="B10" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="34" t="s">
-        <v>242</v>
-      </c>
       <c r="B17" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="34" t="s">
-        <v>243</v>
+      <c r="A18" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="28"/>
-      <c r="C18" s="36"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="28" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="34"/>
-      <c r="B20" s="28" t="s">
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="34"/>
-      <c r="B21" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="34"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="34" t="s">
-        <v>244</v>
+      <c r="A23" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="28" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="15.75">
+      <c r="A25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75">
+      <c r="A26" s="2"/>
+      <c r="B26" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75">
+      <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75">
+      <c r="A28" s="2"/>
+      <c r="B28" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75">
+      <c r="A29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
+      <c r="A31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
+      <c r="A32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75">
+      <c r="A33" s="2"/>
+      <c r="B33" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="34"/>
-      <c r="B26" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="34"/>
-      <c r="B28" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="34" t="s">
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="34"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="34"/>
-      <c r="B33" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="34"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="34" t="s">
-        <v>106</v>
+      <c r="A36" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="34" t="s">
-        <v>248</v>
+      <c r="A37" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B37" s="28"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
-      <c r="A38" s="34"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="36"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="34"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="28"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="34"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="28"/>
-      <c r="C41" s="36"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="34"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="34"/>
+      <c r="A43" s="2"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="36"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="34"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="28"/>
-      <c r="C44" s="36"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="34"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="28"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="34"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="28"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="34"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="34"/>
+      <c r="A48" s="2"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="34"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="36"/>
+      <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="34"/>
+      <c r="A50" s="2"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="36"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="34"/>
+      <c r="A51" s="2"/>
       <c r="B51" s="28"/>
-      <c r="C51" s="36"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="34"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="36"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="34"/>
+      <c r="A54" s="2"/>
       <c r="B54" s="28"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="34"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="28"/>
     </row>
-    <row r="56" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="29"/>
       <c r="B56" s="28"/>
-      <c r="C56" s="36"/>
-    </row>
-    <row r="57" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="29"/>
       <c r="B57" s="28"/>
-      <c r="C57" s="36"/>
-    </row>
-    <row r="58" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="29"/>
       <c r="B58" s="28"/>
-      <c r="C58" s="36"/>
-    </row>
-    <row r="59" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="C58" s="19"/>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="29"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="36"/>
-    </row>
-    <row r="60" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="29"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="36"/>
-    </row>
-    <row r="61" spans="1:3" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="34" t="s">
+      <c r="C60" s="19"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75">
+      <c r="A62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="28"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="28"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="28"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="28"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="19"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="28"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="28"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75">
+      <c r="A70" s="2"/>
+      <c r="B70" s="28"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5">
+      <c r="A71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75">
+      <c r="A73" s="2"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="19"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="19"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="19"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="19"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="19"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="19"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75">
+      <c r="A79" s="2"/>
+      <c r="B79" s="28"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.5">
+      <c r="A80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5">
+      <c r="A81" s="2"/>
+      <c r="B81" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5">
+      <c r="A82" s="2"/>
+      <c r="B82" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75">
+      <c r="A83" s="2"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="19"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="19"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="19"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="19"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="19"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="28"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="19"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="19"/>
+    </row>
+    <row r="91" spans="1:3" ht="17.100000000000001" thickBot="1">
+      <c r="A91" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75">
+      <c r="A92" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="C92" s="30"/>
+    </row>
+    <row r="93" spans="1:3" ht="15.75">
+      <c r="A93" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="30"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="19"/>
+    </row>
+    <row r="95" spans="1:3" ht="15.75">
+      <c r="A95" s="2"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="19"/>
+    </row>
+    <row r="96" spans="1:3" ht="16.5">
+      <c r="A96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="C96" t="s">
         <v>250</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="B62" s="28"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="28"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="28"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="28"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="34"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="36"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B67" s="28"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="36"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="28"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75">
-      <c r="A70" s="34"/>
-      <c r="B70" s="28"/>
-    </row>
-    <row r="71" spans="1:3" ht="16.5">
-      <c r="A71" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5">
-      <c r="A72" s="34"/>
-      <c r="B72" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75">
-      <c r="A73" s="34"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="36"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="36"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="36"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="36"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="34"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="36"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="34"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="36"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75">
-      <c r="A79" s="34"/>
-      <c r="B79" s="28"/>
-    </row>
-    <row r="80" spans="1:3" ht="16.5">
-      <c r="A80" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5">
-      <c r="A81" s="34"/>
-      <c r="B81" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5">
-      <c r="A82" s="34"/>
-      <c r="B82" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75">
-      <c r="A83" s="34"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="36"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="36"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="36"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="36"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="36"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="34"/>
-      <c r="B88" s="28"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="36"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="36"/>
-    </row>
-    <row r="91" spans="1:3" ht="17.100000000000001" thickBot="1">
-      <c r="A91" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="33"/>
-    </row>
-    <row r="92" spans="1:3" ht="18" thickBot="1">
-      <c r="A92" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17.100000000000001" thickBot="1">
-      <c r="A93" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="38"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="34"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="36"/>
-    </row>
-    <row r="95" spans="1:3" ht="15.75">
-      <c r="A95" s="34"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="36"/>
-    </row>
-    <row r="96" spans="1:3" ht="16.5">
-      <c r="A96" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75">
       <c r="B97" s="28"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="33" t="s">
-        <v>144</v>
+      <c r="A98" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B98" s="28"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="30" t="s">
-        <v>145</v>
+      <c r="A99" t="s">
+        <v>136</v>
       </c>
       <c r="B99" s="28"/>
     </row>
@@ -8750,40 +8700,40 @@
       <c r="B100" s="28"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="33"/>
+      <c r="A101" s="4"/>
       <c r="B101" s="28"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="33"/>
+      <c r="A102" s="4"/>
       <c r="B102" s="28"/>
     </row>
     <row r="103" spans="1:3">
       <c r="B103" s="28"/>
-      <c r="C103" s="34"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" s="28"/>
-      <c r="C104" s="34"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" s="28"/>
-      <c r="C105" s="34"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" s="28"/>
-      <c r="C106" s="34"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" s="28"/>
-      <c r="C107" s="34"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" s="28"/>
-      <c r="C108" s="33"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" s="28"/>
-      <c r="C109" s="36"/>
+      <c r="C109" s="19"/>
     </row>
     <row r="110" spans="1:3">
       <c r="B110" s="28"/>
@@ -8799,27 +8749,27 @@
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="28"/>
-      <c r="C114" s="36"/>
+      <c r="C114" s="19"/>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="28"/>
-      <c r="C115" s="36"/>
+      <c r="C115" s="19"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="28"/>
-      <c r="C116" s="36"/>
+      <c r="C116" s="19"/>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" s="28"/>
-      <c r="C117" s="36"/>
+      <c r="C117" s="19"/>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" s="28"/>
-      <c r="C118" s="36"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" s="28"/>
-      <c r="C119" s="36"/>
+      <c r="C119" s="19"/>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="28"/>
@@ -8841,7 +8791,7 @@
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="28"/>
-      <c r="C126" s="39"/>
+      <c r="C126" s="31"/>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="28"/>
@@ -8899,7 +8849,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -8910,170 +8860,170 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="2"/>
       <c r="B6" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="2"/>
@@ -9107,248 +9057,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="34"/>
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="34"/>
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="15.95" customHeight="1">
-      <c r="A5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>59</v>
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="30" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="36"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="34"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>80</v>
+      <c r="C20" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>85</v>
+      <c r="B21" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5">
-      <c r="B22" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>225</v>
+      <c r="B22" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>47</v>
+      <c r="B23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>49</v>
+      <c r="B24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>301</v>
+      <c r="B25" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>266</v>
+      <c r="B26" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5">
-      <c r="B27" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>123</v>
+      <c r="B27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>180</v>
+      <c r="B28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>102</v>
+      <c r="B29" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="34"/>
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9675,15 +9624,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Date_x0020__x0026__x0020_Time xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
@@ -9702,14 +9642,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E29817-E7D0-44AC-B47E-87D4D909CCAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2F0EC-3847-4FE7-B08A-EEF35C79D6DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34220A23-D68F-4415-8317-3103A802156C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34220A23-D68F-4415-8317-3103A802156C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2F0EC-3847-4FE7-B08A-EEF35C79D6DB}"/>
 </file>
--- a/src/mappings/ics/xlsx/veris-1_3_7-mappings-ics_v12.xlsx
+++ b/src/mappings/ics/xlsx/veris-1_3_7-mappings-ics_v12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/javoss_mitre_org/Documents/Documents/Veris II/veris-2/src/mappings/ics/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbergeron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6EEF743F-5A67-4095-9381-1DC2EF84ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBCD1107-B0CF-42A8-9DE9-0CB7321D594A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CCF4E-CF1F-4F58-A8AB-3AD9DD10045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="11" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
+    <workbookView xWindow="-25320" yWindow="405" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="4" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="416">
   <si>
     <t>ATT&amp;CK Integration into VERIS</t>
   </si>
@@ -2597,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B670464-1153-4AA6-978E-5B7FAB2C4B98}">
   <dimension ref="A1:C770"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -8609,10 +8609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDB77F8-08D1-470F-BA2C-78FD3244C97D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8676,49 +8676,6 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE1002AF-9085-461D-9027-25BC22637C47}"/>
@@ -8726,23 +8683,18 @@
     <hyperlink ref="B4" r:id="rId3" display="https://attack.mitre.org/techniques/T0859" xr:uid="{402347B8-ACB8-400E-A471-DF1E9F5E2888}"/>
     <hyperlink ref="B5" r:id="rId4" display="https://attack.mitre.org/techniques/T0882" xr:uid="{8B33FEBA-4C72-4B92-B046-CE68725D749E}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{7DF776B2-230A-42DD-9E69-2A6582CD126F}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{4F0EB2DE-82BD-4BE3-B69D-0CD283D7A24A}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{2753AC4A-448D-4ED1-B43A-42380FD44D0C}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{34E53570-F479-48D6-9C1F-F69988C5AC68}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{1710B428-C825-4560-9640-0ED86A244E3F}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{BA781074-89A4-4B27-B177-BE0D3AB0F999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0720A71-FEE1-42C9-B26A-BF04E4E8C788}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8931,43 +8883,83 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="19"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8977,7 +8969,7 @@
     <hyperlink ref="B4" r:id="rId4" display="https://attack.mitre.org/techniques/T0805" xr:uid="{F3034DBB-E459-D74F-88A6-750589CC67CF}"/>
     <hyperlink ref="B5" r:id="rId5" display="https://attack.mitre.org/techniques/T0858" xr:uid="{4BAD9B53-CB8E-E744-A137-42AD6CE6F07B}"/>
     <hyperlink ref="B12" r:id="rId6" display="https://attack.mitre.org/techniques/T0872" xr:uid="{DFA39C3F-1271-C245-A02B-A0D28D86D385}"/>
-    <hyperlink ref="B23" r:id="rId7" display="https://attack.mitre.org/techniques/T0867" xr:uid="{5648B64F-9B71-B745-BFC0-F93652EB1F9A}"/>
+    <hyperlink ref="B28" r:id="rId7" display="https://attack.mitre.org/techniques/T0867" xr:uid="{5648B64F-9B71-B745-BFC0-F93652EB1F9A}"/>
     <hyperlink ref="B11" r:id="rId8" display="https://attack.mitre.org/techniques/T0862" xr:uid="{F85A74BF-9DE7-1B4F-A2EC-381EF502B332}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://attack.mitre.org/techniques/T0856" xr:uid="{4650DE3B-7840-3E4A-80D1-9BEAD9B90089}"/>
     <hyperlink ref="B19" r:id="rId10" display="https://attack.mitre.org/techniques/T0856" xr:uid="{A2A15B08-F6EA-DA44-ACCB-F682A1B39351}"/>
@@ -8987,9 +8979,14 @@
     <hyperlink ref="B17" r:id="rId14" xr:uid="{F3A7E00E-F3FF-4D04-B057-BD56A302C89E}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{8A78A68C-23BB-43A7-AA80-3DD9C8AF0B56}"/>
     <hyperlink ref="B14" r:id="rId16" xr:uid="{9984584F-DEBD-4CD7-8718-40B885F82E70}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{4F0EB2DE-82BD-4BE3-B69D-0CD283D7A24A}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{2753AC4A-448D-4ED1-B43A-42380FD44D0C}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{34E53570-F479-48D6-9C1F-F69988C5AC68}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{1710B428-C825-4560-9640-0ED86A244E3F}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{BA781074-89A4-4B27-B177-BE0D3AB0F999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -10849,6 +10846,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052D8A6B6F9FE2E45B0EDBAAD5FAF1312" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7022bf91ca57a9626808ed15fdcbfbd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xmlns:ns3="ec3e3de1-934b-464b-893a-587ae869df79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d11a2dadb3f3bef5d5d1fdbc6ca57c91" ns2:_="" ns3:_="">
     <xsd:import namespace="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
@@ -11147,15 +11153,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34220A23-D68F-4415-8317-3103A802156C}">
   <ds:schemaRefs>
@@ -11168,6 +11165,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2F0EC-3847-4FE7-B08A-EEF35C79D6DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E29817-E7D0-44AC-B47E-87D4D909CCAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11184,12 +11189,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2F0EC-3847-4FE7-B08A-EEF35C79D6DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/mappings/ics/xlsx/veris-1_3_7-mappings-ics_v12.xlsx
+++ b/src/mappings/ics/xlsx/veris-1_3_7-mappings-ics_v12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbergeron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/javoss_mitre_org/Documents/Documents/Veris II/veris-2/src/mappings/ics/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CCF4E-CF1F-4F58-A8AB-3AD9DD10045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4E8CCF4E-CF1F-4F58-A8AB-3AD9DD10045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FBFF53-9F8D-4AFE-88A2-ED5A549BFC4A}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="405" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="4" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="416">
   <si>
     <t>ATT&amp;CK Integration into VERIS</t>
   </si>
@@ -8691,10 +8691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0720A71-FEE1-42C9-B26A-BF04E4E8C788}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8908,58 +8908,50 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="19"/>
+        <v>186</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="19"/>
+      <c r="C29" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8969,7 +8961,7 @@
     <hyperlink ref="B4" r:id="rId4" display="https://attack.mitre.org/techniques/T0805" xr:uid="{F3034DBB-E459-D74F-88A6-750589CC67CF}"/>
     <hyperlink ref="B5" r:id="rId5" display="https://attack.mitre.org/techniques/T0858" xr:uid="{4BAD9B53-CB8E-E744-A137-42AD6CE6F07B}"/>
     <hyperlink ref="B12" r:id="rId6" display="https://attack.mitre.org/techniques/T0872" xr:uid="{DFA39C3F-1271-C245-A02B-A0D28D86D385}"/>
-    <hyperlink ref="B28" r:id="rId7" display="https://attack.mitre.org/techniques/T0867" xr:uid="{5648B64F-9B71-B745-BFC0-F93652EB1F9A}"/>
+    <hyperlink ref="B27" r:id="rId7" display="https://attack.mitre.org/techniques/T0867" xr:uid="{5648B64F-9B71-B745-BFC0-F93652EB1F9A}"/>
     <hyperlink ref="B11" r:id="rId8" display="https://attack.mitre.org/techniques/T0862" xr:uid="{F85A74BF-9DE7-1B4F-A2EC-381EF502B332}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://attack.mitre.org/techniques/T0856" xr:uid="{4650DE3B-7840-3E4A-80D1-9BEAD9B90089}"/>
     <hyperlink ref="B19" r:id="rId10" display="https://attack.mitre.org/techniques/T0856" xr:uid="{A2A15B08-F6EA-DA44-ACCB-F682A1B39351}"/>
@@ -8982,11 +8974,10 @@
     <hyperlink ref="B21" r:id="rId17" xr:uid="{4F0EB2DE-82BD-4BE3-B69D-0CD283D7A24A}"/>
     <hyperlink ref="B22" r:id="rId18" xr:uid="{2753AC4A-448D-4ED1-B43A-42380FD44D0C}"/>
     <hyperlink ref="B23" r:id="rId19" xr:uid="{34E53570-F479-48D6-9C1F-F69988C5AC68}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{1710B428-C825-4560-9640-0ED86A244E3F}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{BA781074-89A4-4B27-B177-BE0D3AB0F999}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{BA781074-89A4-4B27-B177-BE0D3AB0F999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -10846,15 +10837,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052D8A6B6F9FE2E45B0EDBAAD5FAF1312" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7022bf91ca57a9626808ed15fdcbfbd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xmlns:ns3="ec3e3de1-934b-464b-893a-587ae869df79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d11a2dadb3f3bef5d5d1fdbc6ca57c91" ns2:_="" ns3:_="">
     <xsd:import namespace="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
@@ -11153,6 +11135,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34220A23-D68F-4415-8317-3103A802156C}">
   <ds:schemaRefs>
@@ -11165,14 +11156,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2F0EC-3847-4FE7-B08A-EEF35C79D6DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E29817-E7D0-44AC-B47E-87D4D909CCAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11189,4 +11172,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2F0EC-3847-4FE7-B08A-EEF35C79D6DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>